--- a/Tabla de presupuesto.xlsx
+++ b/Tabla de presupuesto.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340D0B89-B4F8-4878-B7CF-28FE27B37999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A466D12-A2E7-4F48-866E-62FA1E8AA022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de presupuestos" sheetId="1" r:id="rId1"/>
     <sheet name="Valor de los presupuestos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="238">
   <si>
     <t>TAREA</t>
   </si>
@@ -626,9 +621,6 @@
   </si>
   <si>
     <t xml:space="preserve">FECHA INICIO </t>
-  </si>
-  <si>
-    <t>No Iniciado</t>
   </si>
   <si>
     <t>Mano de obra</t>
@@ -788,6 +780,9 @@
   </si>
   <si>
     <t>Estación de trabajo HP o Dell Precision</t>
+  </si>
+  <si>
+    <t>Iniciado</t>
   </si>
 </sst>
 </file>
@@ -920,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -956,7 +951,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,9 +982,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1015,9 +1022,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,26 +1057,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,26 +1092,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1295,32 +1268,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.54296875" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1330,51 +1302,48 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>199</v>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1382,18 +1351,24 @@
         <v>107</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6">
+        <v>237</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45877</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45879</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0</v>
       </c>
       <c r="J2" s="6">
@@ -1412,14 +1387,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="6">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P2" s="6">
         <v>500000</v>
       </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1427,19 +1401,25 @@
         <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>237</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45877</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45878</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
+      <c r="G3" s="3">
+        <v>25000</v>
+      </c>
       <c r="H3" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>50000</v>
+        <v>50000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -1451,23 +1431,22 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N3" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O3" s="2">
-        <v>50000</v>
+        <v>700000</v>
       </c>
       <c r="P3" s="2">
         <v>700000</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1475,47 +1454,52 @@
         <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+        <v>237</v>
+      </c>
+      <c r="D4" s="15">
+        <v>45878</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45878</v>
+      </c>
+      <c r="F4" s="2">
         <v>8</v>
       </c>
+      <c r="G4" s="3">
+        <v>25000</v>
+      </c>
       <c r="H4" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I4" s="3">
         <v>200000</v>
       </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K4" s="2">
         <v>500000</v>
       </c>
       <c r="L4" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N4" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O4" s="2">
-        <v>50000</v>
+        <v>3550000</v>
       </c>
       <c r="P4" s="2">
-        <v>3550000</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="S4" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4050000</v>
+      </c>
+      <c r="R4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1523,19 +1507,25 @@
         <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+        <v>237</v>
+      </c>
+      <c r="D5" s="15">
+        <v>45878</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45879</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
+      <c r="G5" s="3">
+        <v>25000</v>
+      </c>
       <c r="H5" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>50000</v>
+        <v>50000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1547,42 +1537,47 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N5" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O5" s="2">
-        <v>50000</v>
+        <v>1100000</v>
       </c>
       <c r="P5" s="2">
         <v>1100000</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="S5" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="C6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="16">
+        <v>45880</v>
+      </c>
+      <c r="E6" s="16">
+        <v>45884</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
         <v>0</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
       <c r="J6" s="11">
@@ -1601,15 +1596,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P6" s="11">
         <v>500000</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1617,19 +1610,25 @@
         <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+        <v>237</v>
+      </c>
+      <c r="D7" s="15">
+        <v>45880</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45881</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
+      <c r="G7" s="3">
+        <v>25000</v>
+      </c>
       <c r="H7" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>50000</v>
+        <v>50000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1641,23 +1640,22 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N7" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O7" s="2">
-        <v>50000</v>
+        <v>950000</v>
       </c>
       <c r="P7" s="2">
         <v>950000</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="S7" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1665,47 +1663,52 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+        <v>237</v>
+      </c>
+      <c r="D8" s="15">
+        <v>45881</v>
+      </c>
+      <c r="E8" s="15">
+        <v>45882</v>
+      </c>
+      <c r="F8" s="2">
         <v>8</v>
       </c>
+      <c r="G8" s="3">
+        <v>25000</v>
+      </c>
       <c r="H8" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I8" s="3">
         <v>200000</v>
       </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K8" s="2">
         <v>500000</v>
       </c>
       <c r="L8" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N8" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O8" s="2">
-        <v>50000</v>
+        <v>4250000</v>
       </c>
       <c r="P8" s="2">
-        <v>4250000</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="S8" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4750000</v>
+      </c>
+      <c r="R8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1713,19 +1716,25 @@
         <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>237</v>
+      </c>
+      <c r="D9" s="15">
+        <v>45882</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45884</v>
+      </c>
+      <c r="F9" s="2">
         <v>2</v>
       </c>
+      <c r="G9" s="3">
+        <v>25000</v>
+      </c>
       <c r="H9" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>50000</v>
+        <v>50000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1737,42 +1746,47 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N9" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O9" s="2">
-        <v>50000</v>
+        <v>700000</v>
       </c>
       <c r="P9" s="2">
         <v>700000</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="S9" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="C10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="16">
+        <v>45885</v>
+      </c>
+      <c r="E10" s="16">
+        <v>45895</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
         <v>0</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0</v>
       </c>
       <c r="J10" s="11">
@@ -1791,15 +1805,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P10" s="11">
         <v>500000</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1807,20 +1819,26 @@
         <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+        <v>237</v>
+      </c>
+      <c r="D11" s="15">
+        <v>45885</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45888</v>
+      </c>
+      <c r="F11" s="2">
         <v>2</v>
       </c>
+      <c r="G11" s="3">
+        <v>20000</v>
+      </c>
       <c r="H11" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I11" s="3">
         <v>40000</v>
       </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
@@ -1831,23 +1849,22 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N11" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O11" s="2">
-        <v>50000</v>
+        <v>1090000</v>
       </c>
       <c r="P11" s="2">
         <v>1090000</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="S11" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1855,47 +1872,52 @@
         <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15">
+        <v>45888</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45891</v>
+      </c>
+      <c r="F12" s="2">
         <v>8</v>
       </c>
+      <c r="G12" s="3">
+        <v>20000</v>
+      </c>
       <c r="H12" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I12" s="3">
         <v>160000</v>
       </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K12" s="2">
         <v>500000</v>
       </c>
       <c r="L12" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N12" s="2">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="O12" s="2">
-        <v>50000</v>
+        <v>3210000</v>
       </c>
       <c r="P12" s="2">
-        <v>3210000</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="S12" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3710000</v>
+      </c>
+      <c r="R12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1903,20 +1925,26 @@
         <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+        <v>237</v>
+      </c>
+      <c r="D13" s="15">
+        <v>45891</v>
+      </c>
+      <c r="E13" s="15">
+        <v>45895</v>
+      </c>
+      <c r="F13" s="2">
         <v>2</v>
       </c>
+      <c r="G13" s="3">
+        <v>20000</v>
+      </c>
       <c r="H13" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I13" s="3">
         <v>40000</v>
       </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
@@ -1927,42 +1955,47 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N13" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O13" s="2">
-        <v>50000</v>
+        <v>940000</v>
       </c>
       <c r="P13" s="2">
         <v>940000</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="S13" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="C14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="16">
+        <v>45898</v>
+      </c>
+      <c r="E14" s="16">
+        <v>45925</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
         <v>0</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0</v>
       </c>
       <c r="J14" s="11">
@@ -1981,15 +2014,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P14" s="11">
         <v>500000</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1997,20 +2028,26 @@
         <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+        <v>237</v>
+      </c>
+      <c r="D15" s="15">
+        <v>45898</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45905</v>
+      </c>
+      <c r="F15" s="2">
         <v>2</v>
       </c>
+      <c r="G15" s="3">
+        <v>20000</v>
+      </c>
       <c r="H15" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I15" s="3">
         <v>40000</v>
       </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
@@ -2021,23 +2058,22 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N15" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O15" s="2">
-        <v>50000</v>
+        <v>690000</v>
       </c>
       <c r="P15" s="2">
-        <v>690000</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="S15" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>700000</v>
+      </c>
+      <c r="R15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -2045,47 +2081,52 @@
         <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+        <v>237</v>
+      </c>
+      <c r="D16" s="15">
+        <v>45908</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45919</v>
+      </c>
+      <c r="F16" s="2">
         <v>10</v>
       </c>
+      <c r="G16" s="3">
+        <v>20000</v>
+      </c>
       <c r="H16" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I16" s="3">
         <v>200000</v>
       </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K16" s="2">
         <v>500000</v>
       </c>
       <c r="L16" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N16" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O16" s="2">
-        <v>50000</v>
+        <v>3550000</v>
       </c>
       <c r="P16" s="2">
-        <v>3550000</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="S16" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2550000</v>
+      </c>
+      <c r="R16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2093,20 +2134,26 @@
         <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+        <v>237</v>
+      </c>
+      <c r="D17" s="15">
+        <v>45922</v>
+      </c>
+      <c r="E17" s="15">
+        <v>45925</v>
+      </c>
+      <c r="F17" s="2">
         <v>3</v>
       </c>
+      <c r="G17" s="3">
+        <v>20000</v>
+      </c>
       <c r="H17" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I17" s="3">
         <v>60000</v>
       </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
@@ -2117,42 +2164,47 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N17" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O17" s="2">
-        <v>50000</v>
+        <v>1110000</v>
       </c>
       <c r="P17" s="2">
-        <v>1110000</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="S17" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1100000</v>
+      </c>
+      <c r="R17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="C18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="16">
+        <v>45898</v>
+      </c>
+      <c r="E18" s="16">
+        <v>45925</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <v>0</v>
       </c>
       <c r="H18" s="12">
         <v>0</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0</v>
       </c>
       <c r="J18" s="11">
@@ -2171,15 +2223,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P18" s="11">
         <v>500000</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -2187,20 +2237,26 @@
         <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+        <v>237</v>
+      </c>
+      <c r="D19" s="15">
+        <v>45898</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45905</v>
+      </c>
+      <c r="F19" s="2">
         <v>2</v>
       </c>
+      <c r="G19" s="3">
+        <v>20000</v>
+      </c>
       <c r="H19" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I19" s="3">
         <v>40000</v>
       </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
@@ -2211,23 +2267,22 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N19" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O19" s="2">
-        <v>50000</v>
+        <v>940000</v>
       </c>
       <c r="P19" s="2">
-        <v>940000</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="S19" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>950000</v>
+      </c>
+      <c r="R19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -2235,47 +2290,52 @@
         <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+        <v>237</v>
+      </c>
+      <c r="D20" s="15">
+        <v>45908</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45919</v>
+      </c>
+      <c r="F20" s="2">
         <v>10</v>
       </c>
+      <c r="G20" s="3">
+        <v>20000</v>
+      </c>
       <c r="H20" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I20" s="3">
         <v>200000</v>
       </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K20" s="2">
         <v>500000</v>
       </c>
       <c r="L20" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N20" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O20" s="2">
-        <v>50000</v>
+        <v>4250000</v>
       </c>
       <c r="P20" s="2">
-        <v>4250000</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="S20" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4050000</v>
+      </c>
+      <c r="R20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -2283,20 +2343,26 @@
         <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+        <v>237</v>
+      </c>
+      <c r="D21" s="15">
+        <v>45922</v>
+      </c>
+      <c r="E21" s="15">
+        <v>45925</v>
+      </c>
+      <c r="F21" s="2">
         <v>3</v>
       </c>
+      <c r="G21" s="3">
+        <v>20000</v>
+      </c>
       <c r="H21" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I21" s="3">
         <v>60000</v>
       </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
@@ -2307,42 +2373,47 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N21" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O21" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P21" s="2">
-        <v>710000</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="S21" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>700000</v>
+      </c>
+      <c r="R21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="C22" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="16">
+        <v>45898</v>
+      </c>
+      <c r="E22" s="16">
+        <v>45908</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
         <v>0</v>
       </c>
       <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>0</v>
       </c>
       <c r="J22" s="11">
@@ -2361,15 +2432,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P22" s="11">
         <v>500000</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -2377,20 +2446,26 @@
         <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+        <v>237</v>
+      </c>
+      <c r="D23" s="15">
+        <v>45898</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45902</v>
+      </c>
+      <c r="F23" s="2">
         <v>2</v>
       </c>
+      <c r="G23" s="3">
+        <v>35000</v>
+      </c>
       <c r="H23" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I23" s="3">
         <v>70000</v>
       </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
@@ -2401,23 +2476,22 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N23" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O23" s="2">
-        <v>50000</v>
+        <v>1120000</v>
       </c>
       <c r="P23" s="2">
         <v>1120000</v>
       </c>
-      <c r="Q23" s="2"/>
-      <c r="S23" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -2425,47 +2499,52 @@
         <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+        <v>237</v>
+      </c>
+      <c r="D24" s="15">
+        <v>45902</v>
+      </c>
+      <c r="E24" s="15">
+        <v>45905</v>
+      </c>
+      <c r="F24" s="2">
         <v>6</v>
       </c>
+      <c r="G24" s="3">
+        <v>35000</v>
+      </c>
       <c r="H24" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I24" s="3">
         <v>210000</v>
       </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K24" s="2">
         <v>500000</v>
       </c>
       <c r="L24" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N24" s="2">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="O24" s="2">
-        <v>50000</v>
+        <v>3260000</v>
       </c>
       <c r="P24" s="2">
-        <v>3260000</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="S24" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3060000</v>
+      </c>
+      <c r="R24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -2473,20 +2552,26 @@
         <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+        <v>237</v>
+      </c>
+      <c r="D25" s="15">
+        <v>45905</v>
+      </c>
+      <c r="E25" s="15">
+        <v>45908</v>
+      </c>
+      <c r="F25" s="2">
         <v>2</v>
       </c>
+      <c r="G25" s="3">
+        <v>35000</v>
+      </c>
       <c r="H25" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I25" s="3">
         <v>70000</v>
       </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
@@ -2497,42 +2582,47 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N25" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O25" s="2">
-        <v>50000</v>
+        <v>970000</v>
       </c>
       <c r="P25" s="2">
-        <v>970000</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="S25" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>890000</v>
+      </c>
+      <c r="R25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11">
+      <c r="C26" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="16">
+        <v>45925</v>
+      </c>
+      <c r="E26" s="16">
+        <v>45933</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
         <v>0</v>
       </c>
       <c r="H26" s="12">
         <v>0</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>0</v>
       </c>
       <c r="J26" s="11">
@@ -2551,15 +2641,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P26" s="11">
         <v>500000</v>
       </c>
-      <c r="Q26" s="11"/>
-      <c r="S26" s="13"/>
-    </row>
-    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -2567,20 +2655,26 @@
         <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+        <v>237</v>
+      </c>
+      <c r="D27" s="15">
+        <v>45925</v>
+      </c>
+      <c r="E27" s="15">
+        <v>45926</v>
+      </c>
+      <c r="F27" s="2">
         <v>2</v>
       </c>
+      <c r="G27" s="3">
+        <v>30000</v>
+      </c>
       <c r="H27" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I27" s="3">
         <v>60000</v>
       </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
@@ -2591,23 +2685,22 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N27" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O27" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P27" s="2">
-        <v>710000</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="S27" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>725000</v>
+      </c>
+      <c r="R27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2615,47 +2708,52 @@
         <v>133</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+        <v>237</v>
+      </c>
+      <c r="D28" s="15">
+        <v>45926</v>
+      </c>
+      <c r="E28" s="15">
+        <v>45931</v>
+      </c>
+      <c r="F28" s="2">
         <v>16</v>
       </c>
+      <c r="G28" s="3">
+        <v>30000</v>
+      </c>
       <c r="H28" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I28" s="3">
         <v>480000</v>
       </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
       <c r="J28" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K28" s="2">
         <v>500000</v>
       </c>
       <c r="L28" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N28" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O28" s="2">
-        <v>50000</v>
+        <v>3830000</v>
       </c>
       <c r="P28" s="2">
-        <v>3830000</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="S28" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3720000</v>
+      </c>
+      <c r="R28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2663,20 +2761,26 @@
         <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+        <v>237</v>
+      </c>
+      <c r="D29" s="15">
+        <v>45931</v>
+      </c>
+      <c r="E29" s="15">
+        <v>45933</v>
+      </c>
+      <c r="F29" s="2">
         <v>4</v>
       </c>
+      <c r="G29" s="3">
+        <v>30000</v>
+      </c>
       <c r="H29" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I29" s="3">
         <v>120000</v>
       </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
@@ -2687,42 +2791,47 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N29" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O29" s="2">
-        <v>50000</v>
+        <v>1170000</v>
       </c>
       <c r="P29" s="2">
-        <v>1170000</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="S29" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1090000</v>
+      </c>
+      <c r="R29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="C30" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="16">
+        <v>45925</v>
+      </c>
+      <c r="E30" s="16">
+        <v>45933</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
         <v>0</v>
       </c>
       <c r="H30" s="12">
         <v>0</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>0</v>
       </c>
       <c r="J30" s="11">
@@ -2741,15 +2850,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P30" s="11">
         <v>500000</v>
       </c>
-      <c r="Q30" s="11"/>
-      <c r="S30" s="13"/>
-    </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2757,20 +2864,26 @@
         <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
+        <v>237</v>
+      </c>
+      <c r="D31" s="15">
+        <v>45925</v>
+      </c>
+      <c r="E31" s="15">
+        <v>45926</v>
+      </c>
+      <c r="F31" s="2">
         <v>2</v>
       </c>
+      <c r="G31" s="3">
+        <v>30000</v>
+      </c>
       <c r="H31" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I31" s="3">
         <v>60000</v>
       </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
@@ -2781,23 +2894,22 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N31" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O31" s="2">
-        <v>50000</v>
+        <v>960000</v>
       </c>
       <c r="P31" s="2">
         <v>960000</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="S31" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2805,47 +2917,52 @@
         <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+        <v>237</v>
+      </c>
+      <c r="D32" s="15">
+        <v>45926</v>
+      </c>
+      <c r="E32" s="15">
+        <v>45931</v>
+      </c>
+      <c r="F32" s="2">
         <v>16</v>
       </c>
+      <c r="G32" s="3">
+        <v>30000</v>
+      </c>
       <c r="H32" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I32" s="3">
         <v>480000</v>
       </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K32" s="2">
         <v>500000</v>
       </c>
       <c r="L32" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N32" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O32" s="2">
-        <v>50000</v>
+        <v>4530000</v>
       </c>
       <c r="P32" s="2">
         <v>4530000</v>
       </c>
-      <c r="Q32" s="2"/>
-      <c r="S32" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -2853,20 +2970,26 @@
         <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+        <v>237</v>
+      </c>
+      <c r="D33" s="15">
+        <v>45931</v>
+      </c>
+      <c r="E33" s="15">
+        <v>45933</v>
+      </c>
+      <c r="F33" s="2">
         <v>4</v>
       </c>
+      <c r="G33" s="3">
+        <v>30000</v>
+      </c>
       <c r="H33" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I33" s="3">
         <v>120000</v>
       </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
@@ -2877,42 +3000,47 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N33" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O33" s="2">
-        <v>50000</v>
+        <v>770000</v>
       </c>
       <c r="P33" s="2">
         <v>770000</v>
       </c>
-      <c r="Q33" s="2"/>
-      <c r="S33" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
+      <c r="C34" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="16">
+        <v>45898</v>
+      </c>
+      <c r="E34" s="16">
+        <v>45908</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
         <v>0</v>
       </c>
       <c r="H34" s="12">
         <v>0</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0</v>
       </c>
       <c r="J34" s="11">
@@ -2931,15 +3059,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P34" s="11">
         <v>500000</v>
       </c>
-      <c r="Q34" s="11"/>
-      <c r="S34" s="13"/>
-    </row>
-    <row r="35" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2947,20 +3073,26 @@
         <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+        <v>237</v>
+      </c>
+      <c r="D35" s="15">
+        <v>45898</v>
+      </c>
+      <c r="E35" s="15">
+        <v>45902</v>
+      </c>
+      <c r="F35" s="2">
         <v>3</v>
       </c>
+      <c r="G35" s="3">
+        <v>30000</v>
+      </c>
       <c r="H35" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I35" s="3">
         <v>90000</v>
       </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
@@ -2971,23 +3103,22 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N35" s="2">
+        <v>50000</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1140000</v>
+      </c>
+      <c r="P35" s="2">
         <v>1000000</v>
       </c>
-      <c r="O35" s="2">
-        <v>50000</v>
-      </c>
-      <c r="P35" s="2">
-        <v>1140000</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="S35" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
@@ -2995,47 +3126,52 @@
         <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+        <v>237</v>
+      </c>
+      <c r="D36" s="15">
+        <v>45902</v>
+      </c>
+      <c r="E36" s="15">
+        <v>45905</v>
+      </c>
+      <c r="F36" s="2">
         <v>10</v>
       </c>
+      <c r="G36" s="3">
+        <v>30000</v>
+      </c>
       <c r="H36" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I36" s="3">
         <v>300000</v>
       </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
       <c r="J36" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K36" s="2">
         <v>500000</v>
       </c>
       <c r="L36" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N36" s="2">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="O36" s="2">
-        <v>50000</v>
+        <v>3350000</v>
       </c>
       <c r="P36" s="2">
-        <v>3350000</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="S36" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3300000</v>
+      </c>
+      <c r="R36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -3043,20 +3179,26 @@
         <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+        <v>237</v>
+      </c>
+      <c r="D37" s="15">
+        <v>45905</v>
+      </c>
+      <c r="E37" s="15">
+        <v>45908</v>
+      </c>
+      <c r="F37" s="2">
         <v>3</v>
       </c>
+      <c r="G37" s="3">
+        <v>30000</v>
+      </c>
       <c r="H37" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I37" s="3">
         <v>90000</v>
       </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
@@ -3067,52 +3209,57 @@
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N37" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O37" s="2">
-        <v>50000</v>
+        <v>990000</v>
       </c>
       <c r="P37" s="2">
         <v>990000</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="S37" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>0</v>
+      <c r="C38" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="16">
+        <v>45925</v>
+      </c>
+      <c r="E38" s="16">
+        <v>45933</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>30000</v>
       </c>
       <c r="H38" s="12">
-        <v>30000</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
       </c>
       <c r="J38" s="11">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K38" s="11">
         <v>500000</v>
       </c>
       <c r="L38" s="11">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M38" s="11">
         <v>0</v>
@@ -3121,15 +3268,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P38" s="11">
         <v>500000</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="S38" s="13"/>
-    </row>
-    <row r="39" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -3137,20 +3282,26 @@
         <v>144</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
+        <v>237</v>
+      </c>
+      <c r="D39" s="15">
+        <v>45925</v>
+      </c>
+      <c r="E39" s="15">
+        <v>45926</v>
+      </c>
+      <c r="F39" s="2">
         <v>3</v>
       </c>
+      <c r="G39" s="3">
+        <v>30000</v>
+      </c>
       <c r="H39" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I39" s="3">
         <v>90000</v>
       </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
@@ -3161,23 +3312,22 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N39" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O39" s="2">
-        <v>50000</v>
+        <v>740000</v>
       </c>
       <c r="P39" s="2">
         <v>740000</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="S39" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -3185,47 +3335,52 @@
         <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
+        <v>237</v>
+      </c>
+      <c r="D40" s="15">
+        <v>45926</v>
+      </c>
+      <c r="E40" s="15">
+        <v>45931</v>
+      </c>
+      <c r="F40" s="2">
         <v>20</v>
       </c>
+      <c r="G40" s="3">
+        <v>30000</v>
+      </c>
       <c r="H40" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I40" s="3">
         <v>600000</v>
       </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K40" s="2">
         <v>500000</v>
       </c>
       <c r="L40" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="N40" s="2">
-        <v>6500000</v>
+        <v>50000</v>
       </c>
       <c r="O40" s="2">
-        <v>50000</v>
+        <v>7650000</v>
       </c>
       <c r="P40" s="2">
-        <v>7650000</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="S40" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7000000</v>
+      </c>
+      <c r="R40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -3233,20 +3388,26 @@
         <v>146</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
+        <v>237</v>
+      </c>
+      <c r="D41" s="15">
+        <v>45931</v>
+      </c>
+      <c r="E41" s="15">
+        <v>45933</v>
+      </c>
+      <c r="F41" s="2">
         <v>5</v>
       </c>
+      <c r="G41" s="3">
+        <v>30000</v>
+      </c>
       <c r="H41" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I41" s="3">
         <v>150000</v>
       </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
@@ -3257,42 +3418,47 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N41" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O41" s="2">
-        <v>50000</v>
+        <v>1200000</v>
       </c>
       <c r="P41" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="S41" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1300000</v>
+      </c>
+      <c r="R41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11">
-        <v>0</v>
+      <c r="C42" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="16">
+        <v>45908</v>
+      </c>
+      <c r="E42" s="16">
+        <v>45924</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>35000</v>
       </c>
       <c r="H42" s="12">
-        <v>35000</v>
-      </c>
-      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
         <v>0</v>
       </c>
       <c r="J42" s="11">
@@ -3311,15 +3477,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P42" s="11">
         <v>500000</v>
       </c>
-      <c r="Q42" s="11"/>
-      <c r="S42" s="13"/>
-    </row>
-    <row r="43" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -3327,20 +3491,26 @@
         <v>148</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
+        <v>237</v>
+      </c>
+      <c r="D43" s="15">
+        <v>45908</v>
+      </c>
+      <c r="E43" s="15">
+        <v>45912</v>
+      </c>
+      <c r="F43" s="2">
         <v>2</v>
       </c>
+      <c r="G43" s="3">
+        <v>35000</v>
+      </c>
       <c r="H43" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I43" s="3">
         <v>70000</v>
       </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
@@ -3351,23 +3521,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N43" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O43" s="2">
-        <v>50000</v>
+        <v>970000</v>
       </c>
       <c r="P43" s="2">
         <v>970000</v>
       </c>
-      <c r="Q43" s="2"/>
-      <c r="S43" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -3375,47 +3544,52 @@
         <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
+        <v>237</v>
+      </c>
+      <c r="D44" s="15">
+        <v>45912</v>
+      </c>
+      <c r="E44" s="15">
+        <v>45948</v>
+      </c>
+      <c r="F44" s="2">
         <v>10</v>
       </c>
+      <c r="G44" s="3">
+        <v>35000</v>
+      </c>
       <c r="H44" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I44" s="3">
         <v>350000</v>
       </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K44" s="2">
         <v>500000</v>
       </c>
       <c r="L44" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>7200000</v>
       </c>
       <c r="N44" s="2">
-        <v>7200000</v>
+        <v>50000</v>
       </c>
       <c r="O44" s="2">
-        <v>50000</v>
+        <v>8100000</v>
       </c>
       <c r="P44" s="2">
         <v>8100000</v>
       </c>
-      <c r="Q44" s="2"/>
-      <c r="S44" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -3423,20 +3597,26 @@
         <v>150</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
+        <v>237</v>
+      </c>
+      <c r="D45" s="15">
+        <v>45948</v>
+      </c>
+      <c r="E45" s="15">
+        <v>45924</v>
+      </c>
+      <c r="F45" s="2">
         <v>4</v>
       </c>
+      <c r="G45" s="3">
+        <v>35000</v>
+      </c>
       <c r="H45" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I45" s="3">
         <v>140000</v>
       </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
@@ -3447,52 +3627,57 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N45" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O45" s="2">
-        <v>50000</v>
+        <v>790000</v>
       </c>
       <c r="P45" s="2">
-        <v>790000</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="S45" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>760000</v>
+      </c>
+      <c r="R45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11">
+      <c r="C46" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="16">
+        <v>45936</v>
+      </c>
+      <c r="E46" s="16">
+        <v>45947</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
         <v>0</v>
       </c>
       <c r="H46" s="12">
         <v>0</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>0</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
       </c>
       <c r="K46" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="L46" s="11">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M46" s="11">
         <v>0</v>
@@ -3501,15 +3686,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P46" s="11">
         <v>500000</v>
       </c>
-      <c r="Q46" s="11"/>
-      <c r="S46" s="13"/>
-    </row>
-    <row r="47" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -3517,20 +3700,26 @@
         <v>152</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2">
+        <v>237</v>
+      </c>
+      <c r="D47" s="15">
+        <v>45936</v>
+      </c>
+      <c r="E47" s="15">
+        <v>45939</v>
+      </c>
+      <c r="F47" s="2">
         <v>2</v>
       </c>
+      <c r="G47" s="3">
+        <v>30000</v>
+      </c>
       <c r="H47" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I47" s="3">
         <v>60000</v>
       </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
       <c r="J47" s="2">
         <v>0</v>
       </c>
@@ -3541,23 +3730,22 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N47" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O47" s="2">
-        <v>50000</v>
+        <v>1110000</v>
       </c>
       <c r="P47" s="2">
         <v>1110000</v>
       </c>
-      <c r="Q47" s="2"/>
-      <c r="S47" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -3565,47 +3753,52 @@
         <v>153</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
+        <v>237</v>
+      </c>
+      <c r="D48" s="15">
+        <v>45939</v>
+      </c>
+      <c r="E48" s="15">
+        <v>45945</v>
+      </c>
+      <c r="F48" s="2">
         <v>12</v>
       </c>
+      <c r="G48" s="3">
+        <v>30000</v>
+      </c>
       <c r="H48" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I48" s="3">
         <v>360000</v>
       </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K48" s="2">
         <v>500000</v>
       </c>
       <c r="L48" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N48" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O48" s="2">
-        <v>50000</v>
+        <v>3710000</v>
       </c>
       <c r="P48" s="2">
         <v>3710000</v>
       </c>
-      <c r="Q48" s="2"/>
-      <c r="S48" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -3613,20 +3806,26 @@
         <v>154</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
+        <v>237</v>
+      </c>
+      <c r="D49" s="15">
+        <v>45945</v>
+      </c>
+      <c r="E49" s="15">
+        <v>45947</v>
+      </c>
+      <c r="F49" s="2">
         <v>4</v>
       </c>
+      <c r="G49" s="3">
+        <v>30000</v>
+      </c>
       <c r="H49" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I49" s="3">
         <v>120000</v>
       </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
       <c r="J49" s="2">
         <v>0</v>
       </c>
@@ -3637,42 +3836,47 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N49" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O49" s="2">
-        <v>50000</v>
+        <v>1020000</v>
       </c>
       <c r="P49" s="2">
         <v>1020000</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="S49" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11">
+      <c r="C50" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="16">
+        <v>45936</v>
+      </c>
+      <c r="E50" s="16">
+        <v>45947</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
         <v>0</v>
       </c>
       <c r="H50" s="12">
         <v>0</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <v>0</v>
       </c>
       <c r="J50" s="11">
@@ -3691,15 +3895,13 @@
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P50" s="11">
         <v>500000</v>
       </c>
-      <c r="Q50" s="11"/>
-      <c r="S50" s="13"/>
-    </row>
-    <row r="51" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -3707,20 +3909,26 @@
         <v>156</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
+        <v>237</v>
+      </c>
+      <c r="D51" s="15">
+        <v>45936</v>
+      </c>
+      <c r="E51" s="15">
+        <v>45939</v>
+      </c>
+      <c r="F51" s="2">
         <v>2</v>
       </c>
+      <c r="G51" s="3">
+        <v>30000</v>
+      </c>
       <c r="H51" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I51" s="3">
         <v>60000</v>
       </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
       <c r="J51" s="2">
         <v>0</v>
       </c>
@@ -3731,23 +3939,22 @@
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N51" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O51" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P51" s="2">
         <v>710000</v>
       </c>
-      <c r="Q51" s="2"/>
-      <c r="S51" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -3755,47 +3962,52 @@
         <v>157</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
+        <v>237</v>
+      </c>
+      <c r="D52" s="15">
+        <v>45939</v>
+      </c>
+      <c r="E52" s="15">
+        <v>45945</v>
+      </c>
+      <c r="F52" s="2">
         <v>12</v>
       </c>
+      <c r="G52" s="3">
+        <v>30000</v>
+      </c>
       <c r="H52" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I52" s="3">
         <v>360000</v>
       </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K52" s="2">
         <v>500000</v>
       </c>
       <c r="L52" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N52" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O52" s="2">
-        <v>50000</v>
+        <v>4410000</v>
       </c>
       <c r="P52" s="2">
         <v>4410000</v>
       </c>
-      <c r="Q52" s="2"/>
-      <c r="S52" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -3803,20 +4015,26 @@
         <v>158</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2">
+        <v>237</v>
+      </c>
+      <c r="D53" s="15">
+        <v>45945</v>
+      </c>
+      <c r="E53" s="15">
+        <v>45947</v>
+      </c>
+      <c r="F53" s="2">
         <v>4</v>
       </c>
+      <c r="G53" s="3">
+        <v>30000</v>
+      </c>
       <c r="H53" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I53" s="3">
         <v>120000</v>
       </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
       <c r="J53" s="2">
         <v>0</v>
       </c>
@@ -3827,42 +4045,47 @@
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N53" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O53" s="2">
-        <v>50000</v>
+        <v>1170000</v>
       </c>
       <c r="P53" s="2">
         <v>1170000</v>
       </c>
-      <c r="Q53" s="2"/>
-      <c r="S53" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11">
+      <c r="C54" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="16">
+        <v>45950</v>
+      </c>
+      <c r="E54" s="16">
+        <v>45954</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
         <v>0</v>
       </c>
       <c r="H54" s="12">
         <v>0</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <v>0</v>
       </c>
       <c r="J54" s="11">
@@ -3881,15 +4104,13 @@
         <v>0</v>
       </c>
       <c r="O54" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P54" s="11">
         <v>500000</v>
       </c>
-      <c r="Q54" s="11"/>
-      <c r="S54" s="13"/>
-    </row>
-    <row r="55" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -3897,20 +4118,26 @@
         <v>160</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2">
+        <v>237</v>
+      </c>
+      <c r="D55" s="15">
+        <v>45950</v>
+      </c>
+      <c r="E55" s="15">
+        <v>45950</v>
+      </c>
+      <c r="F55" s="2">
         <v>2</v>
       </c>
+      <c r="G55" s="3">
+        <v>15000</v>
+      </c>
       <c r="H55" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I55" s="3">
         <v>30000</v>
       </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
       <c r="J55" s="2">
         <v>0</v>
       </c>
@@ -3921,23 +4148,22 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N55" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O55" s="2">
-        <v>50000</v>
+        <v>930000</v>
       </c>
       <c r="P55" s="2">
-        <v>930000</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="S55" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>900000</v>
+      </c>
+      <c r="R55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
@@ -3945,47 +4171,52 @@
         <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2">
+        <v>237</v>
+      </c>
+      <c r="D56" s="15">
+        <v>45951</v>
+      </c>
+      <c r="E56" s="15">
+        <v>45953</v>
+      </c>
+      <c r="F56" s="2">
         <v>12</v>
       </c>
+      <c r="G56" s="3">
+        <v>15000</v>
+      </c>
       <c r="H56" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I56" s="3">
         <v>180000</v>
       </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K56" s="2">
         <v>500000</v>
       </c>
       <c r="L56" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N56" s="2">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="O56" s="2">
-        <v>50000</v>
+        <v>3230000</v>
       </c>
       <c r="P56" s="2">
-        <v>3230000</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="S56" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3200000</v>
+      </c>
+      <c r="R56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -3993,20 +4224,26 @@
         <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
+        <v>237</v>
+      </c>
+      <c r="D57" s="15">
+        <v>45953</v>
+      </c>
+      <c r="E57" s="15">
+        <v>45954</v>
+      </c>
+      <c r="F57" s="2">
         <v>2</v>
       </c>
+      <c r="G57" s="3">
+        <v>15000</v>
+      </c>
       <c r="H57" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I57" s="3">
         <v>30000</v>
       </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
@@ -4017,42 +4254,47 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N57" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O57" s="2">
-        <v>50000</v>
+        <v>680000</v>
       </c>
       <c r="P57" s="2">
-        <v>680000</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="S57" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>650000</v>
+      </c>
+      <c r="R57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11">
+      <c r="C58" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="16">
+        <v>45957</v>
+      </c>
+      <c r="E58" s="16">
+        <v>45961</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
         <v>0</v>
       </c>
       <c r="H58" s="12">
         <v>0</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <v>0</v>
       </c>
       <c r="J58" s="11">
@@ -4071,15 +4313,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P58" s="11">
         <v>500000</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="S58" s="13"/>
-    </row>
-    <row r="59" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -4087,20 +4327,26 @@
         <v>164</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
+        <v>237</v>
+      </c>
+      <c r="D59" s="15">
+        <v>45957</v>
+      </c>
+      <c r="E59" s="15">
+        <v>45957</v>
+      </c>
+      <c r="F59" s="2">
         <v>2</v>
       </c>
+      <c r="G59" s="3">
+        <v>15000</v>
+      </c>
       <c r="H59" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I59" s="3">
         <v>30000</v>
       </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
       <c r="J59" s="2">
         <v>0</v>
       </c>
@@ -4111,23 +4357,22 @@
         <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N59" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O59" s="2">
-        <v>50000</v>
+        <v>1080000</v>
       </c>
       <c r="P59" s="2">
         <v>1080000</v>
       </c>
-      <c r="Q59" s="2"/>
-      <c r="S59" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -4135,47 +4380,52 @@
         <v>165</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
+        <v>237</v>
+      </c>
+      <c r="D60" s="15">
+        <v>45957</v>
+      </c>
+      <c r="E60" s="15">
+        <v>45961</v>
+      </c>
+      <c r="F60" s="2">
         <v>12</v>
       </c>
+      <c r="G60" s="3">
+        <v>15000</v>
+      </c>
       <c r="H60" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I60" s="3">
         <v>180000</v>
       </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
       <c r="J60" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K60" s="2">
         <v>500000</v>
       </c>
       <c r="L60" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N60" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O60" s="2">
-        <v>50000</v>
+        <v>3530000</v>
       </c>
       <c r="P60" s="2">
         <v>3530000</v>
       </c>
-      <c r="Q60" s="2"/>
-      <c r="S60" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -4183,20 +4433,26 @@
         <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2">
+        <v>237</v>
+      </c>
+      <c r="D61" s="15">
+        <v>45961</v>
+      </c>
+      <c r="E61" s="15">
+        <v>45961</v>
+      </c>
+      <c r="F61" s="2">
         <v>2</v>
       </c>
+      <c r="G61" s="3">
+        <v>15000</v>
+      </c>
       <c r="H61" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I61" s="3">
         <v>30000</v>
       </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
       <c r="J61" s="2">
         <v>0</v>
       </c>
@@ -4207,42 +4463,47 @@
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N61" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O61" s="2">
-        <v>50000</v>
+        <v>930000</v>
       </c>
       <c r="P61" s="2">
         <v>930000</v>
       </c>
-      <c r="Q61" s="2"/>
-      <c r="S61" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11">
+      <c r="C62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="16">
+        <v>45965</v>
+      </c>
+      <c r="E62" s="16">
+        <v>45967</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
         <v>0</v>
       </c>
       <c r="H62" s="12">
         <v>0</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <v>0</v>
       </c>
       <c r="J62" s="11">
@@ -4261,15 +4522,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P62" s="11">
         <v>500000</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="S62" s="13"/>
-    </row>
-    <row r="63" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
@@ -4277,20 +4536,26 @@
         <v>168</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2">
+        <v>237</v>
+      </c>
+      <c r="D63" s="15">
+        <v>45965</v>
+      </c>
+      <c r="E63" s="15">
+        <v>45965</v>
+      </c>
+      <c r="F63" s="2">
         <v>2</v>
       </c>
+      <c r="G63" s="3">
+        <v>15000</v>
+      </c>
       <c r="H63" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I63" s="3">
         <v>30000</v>
       </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
       <c r="J63" s="2">
         <v>0</v>
       </c>
@@ -4301,23 +4566,22 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N63" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O63" s="2">
-        <v>50000</v>
+        <v>680000</v>
       </c>
       <c r="P63" s="2">
         <v>680000</v>
       </c>
-      <c r="Q63" s="2"/>
-      <c r="S63" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
@@ -4325,47 +4589,52 @@
         <v>169</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2">
+        <v>237</v>
+      </c>
+      <c r="D64" s="15">
+        <v>45965</v>
+      </c>
+      <c r="E64" s="15">
+        <v>45967</v>
+      </c>
+      <c r="F64" s="2">
         <v>12</v>
       </c>
+      <c r="G64" s="3">
+        <v>15000</v>
+      </c>
       <c r="H64" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I64" s="3">
         <v>180000</v>
       </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K64" s="2">
         <v>500000</v>
       </c>
       <c r="L64" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M64" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N64" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O64" s="2">
-        <v>50000</v>
+        <v>4230000</v>
       </c>
       <c r="P64" s="2">
-        <v>4230000</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="S64" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4250000</v>
+      </c>
+      <c r="R64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
@@ -4373,20 +4642,26 @@
         <v>170</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2">
+        <v>237</v>
+      </c>
+      <c r="D65" s="15">
+        <v>45967</v>
+      </c>
+      <c r="E65" s="15">
+        <v>45967</v>
+      </c>
+      <c r="F65" s="2">
         <v>2</v>
       </c>
+      <c r="G65" s="3">
+        <v>15000</v>
+      </c>
       <c r="H65" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I65" s="3">
         <v>30000</v>
       </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
       <c r="J65" s="2">
         <v>0</v>
       </c>
@@ -4397,42 +4672,47 @@
         <v>0</v>
       </c>
       <c r="M65" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N65" s="2">
+        <v>50000</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1080000</v>
+      </c>
+      <c r="P65" s="2">
         <v>1000000</v>
       </c>
-      <c r="O65" s="2">
-        <v>50000</v>
-      </c>
-      <c r="P65" s="2">
-        <v>1080000</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="S65" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11">
+      <c r="C66" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="16">
+        <v>45967</v>
+      </c>
+      <c r="E66" s="16">
+        <v>45972</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
         <v>0</v>
       </c>
       <c r="H66" s="12">
         <v>0</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <v>0</v>
       </c>
       <c r="J66" s="11">
@@ -4451,15 +4731,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P66" s="11">
         <v>500000</v>
       </c>
-      <c r="Q66" s="11"/>
-      <c r="S66" s="13"/>
-    </row>
-    <row r="67" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>80</v>
       </c>
@@ -4467,20 +4745,26 @@
         <v>172</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2">
+        <v>237</v>
+      </c>
+      <c r="D67" s="15">
+        <v>45967</v>
+      </c>
+      <c r="E67" s="15">
+        <v>45967</v>
+      </c>
+      <c r="F67" s="2">
         <v>2</v>
       </c>
+      <c r="G67" s="3">
+        <v>30000</v>
+      </c>
       <c r="H67" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I67" s="3">
         <v>60000</v>
       </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
       <c r="J67" s="2">
         <v>0</v>
       </c>
@@ -4491,23 +4775,22 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N67" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O67" s="2">
-        <v>50000</v>
+        <v>960000</v>
       </c>
       <c r="P67" s="2">
         <v>960000</v>
       </c>
-      <c r="Q67" s="2"/>
-      <c r="S67" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
@@ -4515,47 +4798,52 @@
         <v>173</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2">
+        <v>237</v>
+      </c>
+      <c r="D68" s="15">
+        <v>45968</v>
+      </c>
+      <c r="E68" s="15">
+        <v>45971</v>
+      </c>
+      <c r="F68" s="2">
         <v>8</v>
       </c>
+      <c r="G68" s="3">
+        <v>30000</v>
+      </c>
       <c r="H68" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I68" s="3">
         <v>240000</v>
       </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
       <c r="J68" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K68" s="2">
         <v>500000</v>
       </c>
       <c r="L68" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M68" s="2">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N68" s="2">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="O68" s="2">
-        <v>50000</v>
+        <v>3290000</v>
       </c>
       <c r="P68" s="2">
-        <v>3290000</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="S68" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3200000</v>
+      </c>
+      <c r="R68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -4563,20 +4851,26 @@
         <v>174</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2">
+        <v>237</v>
+      </c>
+      <c r="D69" s="15">
+        <v>45971</v>
+      </c>
+      <c r="E69" s="15">
+        <v>45972</v>
+      </c>
+      <c r="F69" s="2">
         <v>2</v>
       </c>
+      <c r="G69" s="3">
+        <v>30000</v>
+      </c>
       <c r="H69" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I69" s="3">
         <v>60000</v>
       </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
       <c r="J69" s="2">
         <v>0</v>
       </c>
@@ -4587,42 +4881,47 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N69" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O69" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P69" s="2">
-        <v>710000</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="S69" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>680000</v>
+      </c>
+      <c r="R69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11">
+      <c r="C70" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="16">
+        <v>45880</v>
+      </c>
+      <c r="E70" s="16">
+        <v>45972</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
         <v>0</v>
       </c>
       <c r="H70" s="12">
         <v>0</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <v>0</v>
       </c>
       <c r="J70" s="11">
@@ -4641,15 +4940,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P70" s="11">
         <v>500000</v>
       </c>
-      <c r="Q70" s="11"/>
-      <c r="S70" s="13"/>
-    </row>
-    <row r="71" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -4657,20 +4954,26 @@
         <v>176</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2">
+        <v>237</v>
+      </c>
+      <c r="D71" s="15">
+        <v>45880</v>
+      </c>
+      <c r="E71" s="15">
+        <v>45880</v>
+      </c>
+      <c r="F71" s="2">
         <v>2</v>
       </c>
+      <c r="G71" s="3">
+        <v>15000</v>
+      </c>
       <c r="H71" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I71" s="3">
         <v>30000</v>
       </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
       <c r="J71" s="2">
         <v>0</v>
       </c>
@@ -4681,23 +4984,22 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N71" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O71" s="2">
-        <v>50000</v>
+        <v>1080000</v>
       </c>
       <c r="P71" s="2">
         <v>1080000</v>
       </c>
-      <c r="Q71" s="2"/>
-      <c r="S71" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
@@ -4705,47 +5007,52 @@
         <v>177</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2">
+        <v>237</v>
+      </c>
+      <c r="D72" s="15">
+        <v>45880</v>
+      </c>
+      <c r="E72" s="15">
+        <v>45972</v>
+      </c>
+      <c r="F72" s="2">
         <v>8</v>
       </c>
+      <c r="G72" s="3">
+        <v>15000</v>
+      </c>
       <c r="H72" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I72" s="3">
         <v>120000</v>
       </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K72" s="2">
         <v>500000</v>
       </c>
       <c r="L72" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N72" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O72" s="2">
-        <v>50000</v>
+        <v>3470000</v>
       </c>
       <c r="P72" s="2">
-        <v>3470000</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="S72" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3400000</v>
+      </c>
+      <c r="R72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
@@ -4753,20 +5060,26 @@
         <v>178</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2">
+        <v>237</v>
+      </c>
+      <c r="D73" s="15">
+        <v>45972</v>
+      </c>
+      <c r="E73" s="15">
+        <v>45972</v>
+      </c>
+      <c r="F73" s="2">
         <v>2</v>
       </c>
+      <c r="G73" s="3">
+        <v>15000</v>
+      </c>
       <c r="H73" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I73" s="3">
         <v>30000</v>
       </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
       <c r="J73" s="2">
         <v>0</v>
       </c>
@@ -4777,42 +5090,47 @@
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N73" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O73" s="2">
-        <v>50000</v>
+        <v>930000</v>
       </c>
       <c r="P73" s="2">
-        <v>930000</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="S73" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>940000</v>
+      </c>
+      <c r="R73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11">
+      <c r="C74" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="16">
+        <v>45880</v>
+      </c>
+      <c r="E74" s="16">
+        <v>45972</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
         <v>0</v>
       </c>
       <c r="H74" s="12">
         <v>0</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="11">
         <v>0</v>
       </c>
       <c r="J74" s="11">
@@ -4831,15 +5149,13 @@
         <v>0</v>
       </c>
       <c r="O74" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P74" s="11">
         <v>500000</v>
       </c>
-      <c r="Q74" s="11"/>
-      <c r="S74" s="13"/>
-    </row>
-    <row r="75" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>88</v>
       </c>
@@ -4847,20 +5163,26 @@
         <v>180</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2">
+        <v>237</v>
+      </c>
+      <c r="D75" s="15">
+        <v>45880</v>
+      </c>
+      <c r="E75" s="15">
+        <v>45880</v>
+      </c>
+      <c r="F75" s="2">
         <v>2</v>
       </c>
+      <c r="G75" s="3">
+        <v>30000</v>
+      </c>
       <c r="H75" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I75" s="3">
         <v>60000</v>
       </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
@@ -4871,23 +5193,22 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N75" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O75" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P75" s="2">
-        <v>710000</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="S75" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>715000</v>
+      </c>
+      <c r="R75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>89</v>
       </c>
@@ -4895,47 +5216,52 @@
         <v>181</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2">
+        <v>237</v>
+      </c>
+      <c r="D76" s="15">
+        <v>45880</v>
+      </c>
+      <c r="E76" s="15">
+        <v>45972</v>
+      </c>
+      <c r="F76" s="2">
         <v>8</v>
       </c>
+      <c r="G76" s="3">
+        <v>30000</v>
+      </c>
       <c r="H76" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I76" s="3">
         <v>240000</v>
       </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
       <c r="J76" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K76" s="2">
         <v>500000</v>
       </c>
       <c r="L76" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M76" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N76" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O76" s="2">
-        <v>50000</v>
+        <v>4290000</v>
       </c>
       <c r="P76" s="2">
-        <v>4290000</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="S76" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4000000</v>
+      </c>
+      <c r="R76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
@@ -4943,20 +5269,26 @@
         <v>182</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2">
+        <v>237</v>
+      </c>
+      <c r="D77" s="15">
+        <v>45972</v>
+      </c>
+      <c r="E77" s="15">
+        <v>45972</v>
+      </c>
+      <c r="F77" s="2">
         <v>2</v>
       </c>
+      <c r="G77" s="3">
+        <v>30000</v>
+      </c>
       <c r="H77" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I77" s="3">
         <v>60000</v>
       </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
       <c r="J77" s="2">
         <v>0</v>
       </c>
@@ -4967,42 +5299,47 @@
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N77" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O77" s="2">
-        <v>50000</v>
+        <v>1110000</v>
       </c>
       <c r="P77" s="2">
-        <v>1110000</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="S77" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1100000</v>
+      </c>
+      <c r="R77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11">
+      <c r="C78" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="16">
+        <v>45972</v>
+      </c>
+      <c r="E78" s="16">
+        <v>45976</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
         <v>0</v>
       </c>
       <c r="H78" s="12">
         <v>0</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="11">
         <v>0</v>
       </c>
       <c r="J78" s="11">
@@ -5021,15 +5358,13 @@
         <v>0</v>
       </c>
       <c r="O78" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P78" s="11">
         <v>500000</v>
       </c>
-      <c r="Q78" s="11"/>
-      <c r="S78" s="13"/>
-    </row>
-    <row r="79" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -5037,20 +5372,26 @@
         <v>184</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2">
+        <v>237</v>
+      </c>
+      <c r="D79" s="15">
+        <v>45972</v>
+      </c>
+      <c r="E79" s="15">
+        <v>45972</v>
+      </c>
+      <c r="F79" s="2">
         <v>2</v>
       </c>
+      <c r="G79" s="3">
+        <v>35000</v>
+      </c>
       <c r="H79" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I79" s="3">
         <v>70000</v>
       </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
       <c r="J79" s="2">
         <v>0</v>
       </c>
@@ -5061,23 +5402,22 @@
         <v>0</v>
       </c>
       <c r="M79" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N79" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O79" s="2">
-        <v>50000</v>
+        <v>970000</v>
       </c>
       <c r="P79" s="2">
-        <v>970000</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="S79" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>950000</v>
+      </c>
+      <c r="R79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -5085,47 +5425,52 @@
         <v>185</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2">
+        <v>237</v>
+      </c>
+      <c r="D80" s="15">
+        <v>45972</v>
+      </c>
+      <c r="E80" s="15">
+        <v>45975</v>
+      </c>
+      <c r="F80" s="2">
         <v>4</v>
       </c>
+      <c r="G80" s="3">
+        <v>35000</v>
+      </c>
       <c r="H80" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I80" s="3">
         <v>140000</v>
       </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
       <c r="J80" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K80" s="2">
         <v>500000</v>
       </c>
       <c r="L80" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M80" s="2">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="N80" s="2">
-        <v>8000000</v>
+        <v>50000</v>
       </c>
       <c r="O80" s="2">
-        <v>50000</v>
+        <v>8690000</v>
       </c>
       <c r="P80" s="2">
-        <v>8690000</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="S80" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8500000</v>
+      </c>
+      <c r="R80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -5133,20 +5478,26 @@
         <v>186</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2">
+        <v>237</v>
+      </c>
+      <c r="D81" s="15">
+        <v>45975</v>
+      </c>
+      <c r="E81" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F81" s="2">
         <v>2</v>
       </c>
+      <c r="G81" s="3">
+        <v>35000</v>
+      </c>
       <c r="H81" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I81" s="3">
         <v>70000</v>
       </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
       <c r="J81" s="2">
         <v>0</v>
       </c>
@@ -5157,42 +5508,47 @@
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N81" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O81" s="2">
-        <v>50000</v>
+        <v>720000</v>
       </c>
       <c r="P81" s="2">
-        <v>720000</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="S81" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>750000</v>
+      </c>
+      <c r="R81" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11">
+      <c r="C82" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="16">
+        <v>45976</v>
+      </c>
+      <c r="E82" s="16">
+        <v>45976</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
         <v>0</v>
       </c>
       <c r="H82" s="12">
         <v>0</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="11">
         <v>0</v>
       </c>
       <c r="J82" s="11">
@@ -5211,15 +5567,13 @@
         <v>0</v>
       </c>
       <c r="O82" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P82" s="11">
         <v>500000</v>
       </c>
-      <c r="Q82" s="11"/>
-      <c r="S82" s="13"/>
-    </row>
-    <row r="83" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -5227,20 +5581,26 @@
         <v>188</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2">
+        <v>237</v>
+      </c>
+      <c r="D83" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E83" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F83" s="2">
         <v>2</v>
       </c>
+      <c r="G83" s="3">
+        <v>30000</v>
+      </c>
       <c r="H83" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I83" s="3">
         <v>60000</v>
       </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
@@ -5251,23 +5611,22 @@
         <v>0</v>
       </c>
       <c r="M83" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N83" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O83" s="2">
-        <v>50000</v>
+        <v>1110000</v>
       </c>
       <c r="P83" s="2">
-        <v>1110000</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="S83" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1010000</v>
+      </c>
+      <c r="R83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>97</v>
       </c>
@@ -5275,47 +5634,52 @@
         <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2">
+        <v>237</v>
+      </c>
+      <c r="D84" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E84" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F84" s="2">
         <v>2</v>
       </c>
+      <c r="G84" s="3">
+        <v>30000</v>
+      </c>
       <c r="H84" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I84" s="3">
         <v>60000</v>
       </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
       <c r="J84" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K84" s="2">
         <v>500000</v>
       </c>
       <c r="L84" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M84" s="2">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="N84" s="2">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="O84" s="2">
-        <v>50000</v>
+        <v>3110000</v>
       </c>
       <c r="P84" s="2">
-        <v>3110000</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="S84" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3100000</v>
+      </c>
+      <c r="R84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>98</v>
       </c>
@@ -5323,20 +5687,26 @@
         <v>190</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2">
+        <v>237</v>
+      </c>
+      <c r="D85" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E85" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F85" s="2">
         <v>2</v>
       </c>
+      <c r="G85" s="3">
+        <v>30000</v>
+      </c>
       <c r="H85" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I85" s="3">
         <v>60000</v>
       </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
       <c r="J85" s="2">
         <v>0</v>
       </c>
@@ -5347,42 +5717,47 @@
         <v>0</v>
       </c>
       <c r="M85" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N85" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O85" s="2">
-        <v>50000</v>
+        <v>960000</v>
       </c>
       <c r="P85" s="2">
         <v>960000</v>
       </c>
-      <c r="Q85" s="2"/>
-      <c r="S85" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11">
+      <c r="C86" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="16">
+        <v>45976</v>
+      </c>
+      <c r="E86" s="16">
+        <v>45976</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
         <v>0</v>
       </c>
       <c r="H86" s="12">
         <v>0</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="11">
         <v>0</v>
       </c>
       <c r="J86" s="11">
@@ -5401,15 +5776,13 @@
         <v>0</v>
       </c>
       <c r="O86" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P86" s="11">
         <v>500000</v>
       </c>
-      <c r="Q86" s="11"/>
-      <c r="S86" s="13"/>
-    </row>
-    <row r="87" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>100</v>
       </c>
@@ -5417,20 +5790,26 @@
         <v>192</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2">
+        <v>237</v>
+      </c>
+      <c r="D87" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E87" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F87" s="2">
         <v>2</v>
       </c>
+      <c r="G87" s="3">
+        <v>30000</v>
+      </c>
       <c r="H87" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I87" s="3">
         <v>60000</v>
       </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
       <c r="J87" s="2">
         <v>0</v>
       </c>
@@ -5441,23 +5820,22 @@
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N87" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O87" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P87" s="2">
         <v>710000</v>
       </c>
-      <c r="Q87" s="2"/>
-      <c r="S87" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>101</v>
       </c>
@@ -5465,47 +5843,52 @@
         <v>193</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2">
+        <v>237</v>
+      </c>
+      <c r="D88" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E88" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F88" s="2">
         <v>2</v>
       </c>
+      <c r="G88" s="3">
+        <v>30000</v>
+      </c>
       <c r="H88" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I88" s="3">
         <v>60000</v>
       </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
       <c r="J88" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K88" s="2">
         <v>500000</v>
       </c>
       <c r="L88" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M88" s="2">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="N88" s="2">
-        <v>2800000</v>
+        <v>50000</v>
       </c>
       <c r="O88" s="2">
-        <v>50000</v>
+        <v>3410000</v>
       </c>
       <c r="P88" s="2">
         <v>3410000</v>
       </c>
-      <c r="Q88" s="2"/>
-      <c r="S88" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>102</v>
       </c>
@@ -5513,20 +5896,26 @@
         <v>194</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2">
+        <v>237</v>
+      </c>
+      <c r="D89" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E89" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F89" s="2">
         <v>2</v>
       </c>
+      <c r="G89" s="3">
+        <v>30000</v>
+      </c>
       <c r="H89" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I89" s="3">
         <v>60000</v>
       </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
       <c r="J89" s="2">
         <v>0</v>
       </c>
@@ -5537,42 +5926,47 @@
         <v>0</v>
       </c>
       <c r="M89" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="N89" s="2">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="O89" s="2">
-        <v>50000</v>
+        <v>1110000</v>
       </c>
       <c r="P89" s="2">
         <v>1110000</v>
       </c>
-      <c r="Q89" s="2"/>
-      <c r="S89" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11">
+      <c r="C90" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="16">
+        <v>45877</v>
+      </c>
+      <c r="E90" s="16">
+        <v>45976</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
         <v>0</v>
       </c>
       <c r="H90" s="12">
         <v>0</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="11">
         <v>0</v>
       </c>
       <c r="J90" s="11">
@@ -5591,15 +5985,13 @@
         <v>0</v>
       </c>
       <c r="O90" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="P90" s="11">
         <v>500000</v>
       </c>
-      <c r="Q90" s="11"/>
-      <c r="S90" s="13"/>
-    </row>
-    <row r="91" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>104</v>
       </c>
@@ -5607,20 +5999,26 @@
         <v>196</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2">
+        <v>237</v>
+      </c>
+      <c r="D91" s="15">
+        <v>45877</v>
+      </c>
+      <c r="E91" s="15">
+        <v>45877</v>
+      </c>
+      <c r="F91" s="2">
         <v>2</v>
       </c>
+      <c r="G91" s="3">
+        <v>30000</v>
+      </c>
       <c r="H91" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I91" s="3">
         <v>60000</v>
       </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
       <c r="J91" s="2">
         <v>0</v>
       </c>
@@ -5631,23 +6029,22 @@
         <v>0</v>
       </c>
       <c r="M91" s="2">
-        <v>0</v>
+        <v>850000</v>
       </c>
       <c r="N91" s="2">
-        <v>850000</v>
+        <v>50000</v>
       </c>
       <c r="O91" s="2">
-        <v>50000</v>
+        <v>960000</v>
       </c>
       <c r="P91" s="2">
         <v>960000</v>
       </c>
-      <c r="Q91" s="2"/>
-      <c r="S91" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>105</v>
       </c>
@@ -5655,47 +6052,52 @@
         <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2">
+        <v>237</v>
+      </c>
+      <c r="D92" s="15">
+        <v>45877</v>
+      </c>
+      <c r="E92" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F92" s="2">
         <v>2</v>
       </c>
+      <c r="G92" s="3">
+        <v>30000</v>
+      </c>
       <c r="H92" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I92" s="3">
         <v>60000</v>
       </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
       <c r="J92" s="2">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="K92" s="2">
         <v>500000</v>
       </c>
       <c r="L92" s="2">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="M92" s="2">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="N92" s="2">
-        <v>3500000</v>
+        <v>50000</v>
       </c>
       <c r="O92" s="2">
-        <v>50000</v>
+        <v>4110000</v>
       </c>
       <c r="P92" s="2">
-        <v>4110000</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="S92" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3910000</v>
+      </c>
+      <c r="R92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>106</v>
       </c>
@@ -5703,20 +6105,26 @@
         <v>198</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2">
+        <v>237</v>
+      </c>
+      <c r="D93" s="15">
+        <v>45976</v>
+      </c>
+      <c r="E93" s="15">
+        <v>45976</v>
+      </c>
+      <c r="F93" s="2">
         <v>2</v>
       </c>
+      <c r="G93" s="3">
+        <v>30000</v>
+      </c>
       <c r="H93" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I93" s="3">
         <v>60000</v>
       </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
       <c r="J93" s="2">
         <v>0</v>
       </c>
@@ -5727,20 +6135,19 @@
         <v>0</v>
       </c>
       <c r="M93" s="2">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="N93" s="2">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="O93" s="2">
-        <v>50000</v>
+        <v>710000</v>
       </c>
       <c r="P93" s="2">
-        <v>710000</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="S93" s="13" t="s">
-        <v>229</v>
+        <v>705000</v>
+      </c>
+      <c r="R93" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5756,143 +6163,143 @@
       <selection activeCell="R28" sqref="N5:R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>201</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="T3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="T5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="T9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N11" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N13" s="4" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N15" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N17" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N15" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N17" s="5" t="s">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N19" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="5" t="s">
+    <row r="21" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N21" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N21" s="4" t="s">
+    <row r="22" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N23" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N23" s="5" t="s">
+    <row r="24" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N25" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N25" s="5" t="s">
+    <row r="26" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N27" s="5" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N27" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
